--- a/doc/Function Analysis.xlsx
+++ b/doc/Function Analysis.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MNDPS\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1940" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="1940" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="Agency Order BOL Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Question" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>家乐福</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,14 +52,6 @@
   </si>
   <si>
     <t>永辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京华联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maintenance Period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -163,15 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Mulitple Suppplyer Selection?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Trade Type? 进货 退货？
-2. 2000 records limitation? How to cover the initialization process?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Excel in Zip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,50 +210,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Only delivery the txt which includes both Order and BOL?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Migration?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOL exists but Order doesn't exist.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>How to find the Order for the BOL? Search from system again? Or search the exported txt file of Order?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If use DB? Mysql or Sqlserver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>By default system will retrieve the data of previous day. User also is able to define the particular date to retrieve data.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>北京华联</t>
+  </si>
+  <si>
+    <t>1. Mulitple Suppplyer Selection</t>
+  </si>
+  <si>
+    <t>1. Trade Type? 进货 退货？
+2. 2000 records limitation for export data. How to cover the initialization process?</t>
+  </si>
+  <si>
+    <t>Do we need maintenance Period?</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Is it available to provide more test account for the mult-thread testing?</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>There might be a scenario that BOL exists but Order doesn't exist in the agency's system. How is the process logic?</t>
+  </si>
+  <si>
+    <t>Does the system need data initialization that pulling all history data from the web site of agency? How is the period we should cover?</t>
+  </si>
+  <si>
+    <t>In the scenario that BOL info generation date is different with the order generation date. How to get the order info of the BOL?
+Shall we get the order info from the data we pulling previously and stored in our system? Or get the BOL data from agency's system again?</t>
+  </si>
+  <si>
+    <t>We might suppose to use database to store some configuration. Is there any limitation or requirement to RSi? E.g. shall we use Mysql or Sqlserver?</t>
+  </si>
+  <si>
+    <t>Please clarify if the below scenario right?
+a. Only the record who has both Order and BOL info will be merged to txt file and it will be used to next function step, right? 
+b. For the record who only has Order info or only includes BOL info, it will be kept in our system until both Order and BOL are generated(found). right?</t>
+  </si>
+  <si>
+    <t>In some agency's system, it will include both '进货" and "退货" record in the BOL page. Shall we only pull the data of "进货"?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -274,7 +280,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -283,7 +289,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -313,26 +319,113 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K8" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:K8"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Agency" dataDxfId="11"/>
+    <tableColumn id="2" name="URL" dataDxfId="10"/>
+    <tableColumn id="3" name="User" dataDxfId="9"/>
+    <tableColumn id="4" name="Password" dataDxfId="8"/>
+    <tableColumn id="5" name="Remark" dataDxfId="7"/>
+    <tableColumn id="6" name="Login" dataDxfId="6"/>
+    <tableColumn id="7" name="Login Remark" dataDxfId="5"/>
+    <tableColumn id="8" name="Order Format" dataDxfId="4"/>
+    <tableColumn id="9" name="Order Remark" dataDxfId="3"/>
+    <tableColumn id="10" name="Bill of Lading Format" dataDxfId="2"/>
+    <tableColumn id="11" name="Bill of Lading Remark" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:B9" totalsRowShown="0">
+  <autoFilter ref="A1:B9"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="SN"/>
+    <tableColumn id="2" name="Question" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -659,207 +752,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="67.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.83203125" customWidth="1"/>
-    <col min="6" max="7" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="35.4140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="33" customHeight="1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>951763</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="62">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="G3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2">
+        <v>852963</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>951763</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>29399</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>54817</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2">
+        <v>23625</v>
+      </c>
+      <c r="D8" s="2">
+        <v>122455</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="120">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>852963</v>
-      </c>
-      <c r="F4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5">
-        <v>29399</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>54817</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>23625</v>
-      </c>
-      <c r="D8">
-        <v>122455</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -871,6 +1000,9 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -881,60 +1013,104 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="124.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="124.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="62">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>55</v>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/Function Analysis.xlsx
+++ b/doc/Function Analysis.xlsx
@@ -9,11 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1940" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="60" yWindow="1940" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Agency Order BOL Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Retailer System" sheetId="1" r:id="rId1"/>
     <sheet name="Question" sheetId="2" r:id="rId2"/>
+    <sheet name="Order" sheetId="3" r:id="rId3"/>
+    <sheet name="Order Detail" sheetId="4" r:id="rId4"/>
+    <sheet name="BOL" sheetId="5" r:id="rId5"/>
+    <sheet name="BOL Detail" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,11 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
-  <si>
-    <t>家乐福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
   <si>
     <t>http://supplierweb.carrefour.com.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乐购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.holytax.com/system/welcome.do;HOLYTAXSESSION=TKrwNJPNTvrpLcb2sV2y54zK2BGZ2SgSzLpJ2SFYw9GzgzJYdCSL!1169083069!NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,31 +47,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>永辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://www.metro-link.com/metro-link/html/zh/ml_cn_home/index.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>麦德龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mn888888</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新一佳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>plum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人人乐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -230,9 +210,6 @@
   </si>
   <si>
     <t>Is it available to provide more test account for the mult-thread testing?</t>
-  </si>
-  <si>
-    <t>Agency</t>
   </si>
   <si>
     <t>There might be a scenario that BOL exists but Order doesn't exist in the agency's system. How is the process logic?</t>
@@ -254,6 +231,114 @@
   </si>
   <si>
     <t>In some agency's system, it will include both '进货" and "退货" record in the BOL page. Shall we only pull the data of "进货"?</t>
+  </si>
+  <si>
+    <t>家乐福</t>
+  </si>
+  <si>
+    <t>乐购</t>
+  </si>
+  <si>
+    <t>永辉</t>
+  </si>
+  <si>
+    <t>麦德龙</t>
+  </si>
+  <si>
+    <t>新一佳</t>
+  </si>
+  <si>
+    <t>人人乐</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Department No.</t>
+  </si>
+  <si>
+    <t>Department Name</t>
+  </si>
+  <si>
+    <t>Order No.</t>
+  </si>
+  <si>
+    <t>Order Generate Date</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Item Barcode</t>
+  </si>
+  <si>
+    <t>Item Quantity</t>
+  </si>
+  <si>
+    <t>Item Unit Price</t>
+  </si>
+  <si>
+    <t>Subtotal Price</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Item Code</t>
+  </si>
+  <si>
+    <t>Retailer</t>
+  </si>
+  <si>
+    <t>Receiving Date</t>
+  </si>
+  <si>
+    <t>BOL ID</t>
+  </si>
+  <si>
+    <t>Item No.</t>
+  </si>
+  <si>
+    <t>Item Qty</t>
+  </si>
+  <si>
+    <t>Store No.</t>
+  </si>
+  <si>
+    <t>Item Price</t>
+  </si>
+  <si>
+    <t>Supplier No.</t>
+  </si>
+  <si>
+    <t>Supplier Name</t>
+  </si>
+  <si>
+    <t>Store Name</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Cannot Find</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>No need</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -401,7 +486,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K8" totalsRowShown="0" dataDxfId="12">
   <autoFilter ref="A1:K8"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Agency" dataDxfId="11"/>
+    <tableColumn id="1" name="Retailer" dataDxfId="11"/>
     <tableColumn id="2" name="URL" dataDxfId="10"/>
     <tableColumn id="3" name="User" dataDxfId="9"/>
     <tableColumn id="4" name="Password" dataDxfId="8"/>
@@ -423,6 +508,72 @@
   <tableColumns count="2">
     <tableColumn id="1" name="SN"/>
     <tableColumn id="2" name="Question" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:H8" totalsRowShown="0">
+  <autoFilter ref="A1:H8"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Retailer"/>
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="3" name="Order No."/>
+    <tableColumn id="4" name="Order Generate Date"/>
+    <tableColumn id="5" name="Department No."/>
+    <tableColumn id="6" name="Department Name"/>
+    <tableColumn id="7" name="Supplier No."/>
+    <tableColumn id="8" name="Supplier Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="A1:I8" totalsRowShown="0">
+  <autoFilter ref="A1:I8"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Retailer"/>
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="3" name="Order ID"/>
+    <tableColumn id="4" name="Item Code"/>
+    <tableColumn id="5" name="Item Name"/>
+    <tableColumn id="6" name="Item Barcode"/>
+    <tableColumn id="7" name="Item Quantity"/>
+    <tableColumn id="8" name="Item Unit Price"/>
+    <tableColumn id="9" name="Subtotal Price"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表5" displayName="表5" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Retailer"/>
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="3" name="Order ID"/>
+    <tableColumn id="4" name="Receiving Date"/>
+    <tableColumn id="5" name="Store No."/>
+    <tableColumn id="6" name="Store Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="表6" displayName="表6" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Retailer"/>
+    <tableColumn id="2" name="ID"/>
+    <tableColumn id="3" name="BOL ID"/>
+    <tableColumn id="4" name="Item No."/>
+    <tableColumn id="5" name="Item Qty"/>
+    <tableColumn id="7" name="Item Price"/>
+    <tableColumn id="6" name="Subtotal Price"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,7 +904,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" outlineLevelCol="1"/>
@@ -772,144 +923,144 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31">
+      <c r="A2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="31">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="2">
         <v>951763</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="62">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="62">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>852963</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>29399</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -920,44 +1071,44 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
+      <c r="A6" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+      <c r="A7" t="s">
+        <v>56</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
         <v>54817</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -968,11 +1119,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
+      <c r="A8" t="s">
+        <v>57</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <v>23625</v>
@@ -984,7 +1135,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1015,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1027,10 +1178,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1038,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1047,7 +1198,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1056,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1065,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1074,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="62">
@@ -1083,7 +1234,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31">
@@ -1092,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1101,7 +1252,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1117,4 +1268,566 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="4" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/doc/Function Analysis.xlsx
+++ b/doc/Function Analysis.xlsx
@@ -28,8 +28,114 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Zhanyong Wang</author>
+  </authors>
+  <commentList>
+    <comment ref="H4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zhanyong Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Get from BOL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zhanyong Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Get from BOL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zhanyong Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Get from BOL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Zhanyong Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Get from BOL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="86">
   <si>
     <t>http://supplierweb.carrefour.com.cn/</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,9 +363,6 @@
     <t>Department No.</t>
   </si>
   <si>
-    <t>Department Name</t>
-  </si>
-  <si>
     <t>Order No.</t>
   </si>
   <si>
@@ -299,9 +402,6 @@
     <t>BOL ID</t>
   </si>
   <si>
-    <t>Item No.</t>
-  </si>
-  <si>
     <t>Item Qty</t>
   </si>
   <si>
@@ -335,17 +435,17 @@
     <t>No need</t>
   </si>
   <si>
-    <t>Useful</t>
-  </si>
-  <si>
     <t>U</t>
+  </si>
+  <si>
+    <t>Can get the data and it's Useful</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -378,6 +478,19 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -514,15 +627,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:H8" totalsRowShown="0">
-  <autoFilter ref="A1:H8"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A1:I8" totalsRowShown="0">
+  <autoFilter ref="A1:I8"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Retailer"/>
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="Order No."/>
     <tableColumn id="4" name="Order Generate Date"/>
+    <tableColumn id="9" name="Store No."/>
+    <tableColumn id="10" name="Store Name"/>
     <tableColumn id="5" name="Department No."/>
-    <tableColumn id="6" name="Department Name"/>
     <tableColumn id="7" name="Supplier No."/>
     <tableColumn id="8" name="Supplier Name"/>
   </tableColumns>
@@ -570,7 +684,7 @@
     <tableColumn id="1" name="Retailer"/>
     <tableColumn id="2" name="ID"/>
     <tableColumn id="3" name="BOL ID"/>
-    <tableColumn id="4" name="Item No."/>
+    <tableColumn id="4" name="Item Code"/>
     <tableColumn id="5" name="Item Qty"/>
     <tableColumn id="7" name="Item Price"/>
     <tableColumn id="6" name="Subtotal Price"/>
@@ -923,7 +1037,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
@@ -1272,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1283,148 +1397,188 @@
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.4140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
         <v>61</v>
       </c>
-      <c r="D1" t="s">
-        <v>62</v>
-      </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
         <v>59</v>
       </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
       <c r="H1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1436,11 +1590,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1457,31 +1611,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>66</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>67</v>
-      </c>
-      <c r="I1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1489,28 +1643,28 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1518,28 +1672,28 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1547,10 +1701,28 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1558,10 +1730,10 @@
         <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1569,10 +1741,28 @@
         <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1580,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1591,16 +1781,17 @@
         <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1610,7 +1801,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1624,22 +1815,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1647,19 +1838,19 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1667,25 +1858,40 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>54</v>
       </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -1695,6 +1901,21 @@
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1720,7 +1941,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1732,25 +1953,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>58</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>75</v>
       </c>
-      <c r="F1" t="s">
-        <v>77</v>
-      </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1758,22 +1979,22 @@
         <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1781,28 +2002,46 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>54</v>
       </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
@@ -1812,6 +2051,24 @@
     <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/doc/Function Analysis.xlsx
+++ b/doc/Function Analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1940" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="60" yWindow="1940" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Retailer System" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,13 +492,25 @@
       <name val="宋体"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -510,14 +522,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -534,13 +547,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="5" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
     <dxf>
@@ -1017,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" outlineLevelCol="1"/>
@@ -1070,7 +1087,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31">
+    <row r="2" spans="1:11" ht="32">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1094,14 +1111,14 @@
       <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="62">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1129,14 +1146,14 @@
       <c r="I3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1154,7 +1171,7 @@
         <v>31</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2"/>
@@ -1184,7 +1201,7 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -1202,11 +1219,11 @@
         <v>37</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="2"/>
@@ -1940,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
